--- a/Results/A 10x.xlsx
+++ b/Results/A 10x.xlsx
@@ -96,7 +96,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$1:$L$1</f>
+              <f>'A 10x 8 bits S0'!$B$1:$K$1</f>
             </numRef>
           </val>
         </ser>
@@ -123,7 +123,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$2:$L$2</f>
+              <f>'A 10x 8 bits S0'!$B$2:$K$2</f>
             </numRef>
           </val>
         </ser>
@@ -150,7 +150,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$3:$L$3</f>
+              <f>'A 10x 8 bits S0'!$B$3:$K$3</f>
             </numRef>
           </val>
         </ser>
@@ -177,7 +177,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$4:$L$4</f>
+              <f>'A 10x 8 bits S0'!$B$4:$K$4</f>
             </numRef>
           </val>
         </ser>
@@ -204,7 +204,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$5:$L$5</f>
+              <f>'A 10x 8 bits S0'!$B$5:$K$5</f>
             </numRef>
           </val>
         </ser>
@@ -231,7 +231,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$6:$L$6</f>
+              <f>'A 10x 8 bits S0'!$B$6:$K$6</f>
             </numRef>
           </val>
         </ser>
@@ -258,7 +258,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$7:$L$7</f>
+              <f>'A 10x 8 bits S0'!$B$7:$K$7</f>
             </numRef>
           </val>
         </ser>
@@ -285,7 +285,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$8:$L$8</f>
+              <f>'A 10x 8 bits S0'!$B$8:$K$8</f>
             </numRef>
           </val>
         </ser>
@@ -312,7 +312,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$9:$L$9</f>
+              <f>'A 10x 8 bits S0'!$B$9:$K$9</f>
             </numRef>
           </val>
         </ser>
@@ -339,7 +339,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$10:$L$10</f>
+              <f>'A 10x 8 bits S0'!$B$10:$K$10</f>
             </numRef>
           </val>
         </ser>
@@ -366,7 +366,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$11:$L$11</f>
+              <f>'A 10x 8 bits S0'!$B$11:$K$11</f>
             </numRef>
           </val>
         </ser>
@@ -393,7 +393,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$12:$L$12</f>
+              <f>'A 10x 8 bits S0'!$B$12:$K$12</f>
             </numRef>
           </val>
         </ser>
@@ -420,7 +420,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$13:$L$13</f>
+              <f>'A 10x 8 bits S0'!$B$13:$K$13</f>
             </numRef>
           </val>
         </ser>
@@ -447,7 +447,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$14:$L$14</f>
+              <f>'A 10x 8 bits S0'!$B$14:$K$14</f>
             </numRef>
           </val>
         </ser>
@@ -474,7 +474,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S0'!$B$15:$L$15</f>
+              <f>'A 10x 8 bits S0'!$B$15:$K$15</f>
             </numRef>
           </val>
         </ser>
@@ -542,7 +542,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$1:$K$1</f>
+              <f>'A 10x 16 bits S4'!$B$1:$J$1</f>
             </numRef>
           </val>
         </ser>
@@ -569,7 +569,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$2:$K$2</f>
+              <f>'A 10x 16 bits S4'!$B$2:$J$2</f>
             </numRef>
           </val>
         </ser>
@@ -596,7 +596,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$3:$K$3</f>
+              <f>'A 10x 16 bits S4'!$B$3:$J$3</f>
             </numRef>
           </val>
         </ser>
@@ -623,7 +623,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$4:$K$4</f>
+              <f>'A 10x 16 bits S4'!$B$4:$J$4</f>
             </numRef>
           </val>
         </ser>
@@ -650,7 +650,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$5:$K$5</f>
+              <f>'A 10x 16 bits S4'!$B$5:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -677,7 +677,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$6:$K$6</f>
+              <f>'A 10x 16 bits S4'!$B$6:$J$6</f>
             </numRef>
           </val>
         </ser>
@@ -704,7 +704,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$7:$K$7</f>
+              <f>'A 10x 16 bits S4'!$B$7:$J$7</f>
             </numRef>
           </val>
         </ser>
@@ -731,7 +731,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$8:$K$8</f>
+              <f>'A 10x 16 bits S4'!$B$8:$J$8</f>
             </numRef>
           </val>
         </ser>
@@ -758,7 +758,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$9:$K$9</f>
+              <f>'A 10x 16 bits S4'!$B$9:$J$9</f>
             </numRef>
           </val>
         </ser>
@@ -785,7 +785,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$10:$K$10</f>
+              <f>'A 10x 16 bits S4'!$B$10:$J$10</f>
             </numRef>
           </val>
         </ser>
@@ -812,7 +812,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$11:$K$11</f>
+              <f>'A 10x 16 bits S4'!$B$11:$J$11</f>
             </numRef>
           </val>
         </ser>
@@ -839,7 +839,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$12:$K$12</f>
+              <f>'A 10x 16 bits S4'!$B$12:$J$12</f>
             </numRef>
           </val>
         </ser>
@@ -866,7 +866,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$13:$K$13</f>
+              <f>'A 10x 16 bits S4'!$B$13:$J$13</f>
             </numRef>
           </val>
         </ser>
@@ -893,7 +893,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$14:$K$14</f>
+              <f>'A 10x 16 bits S4'!$B$14:$J$14</f>
             </numRef>
           </val>
         </ser>
@@ -920,7 +920,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S4'!$B$15:$K$15</f>
+              <f>'A 10x 16 bits S4'!$B$15:$J$15</f>
             </numRef>
           </val>
         </ser>
@@ -988,7 +988,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$1:$I$1</f>
+              <f>'A 10x 8 bits S1'!$B$1:$H$1</f>
             </numRef>
           </val>
         </ser>
@@ -1015,7 +1015,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$2:$I$2</f>
+              <f>'A 10x 8 bits S1'!$B$2:$H$2</f>
             </numRef>
           </val>
         </ser>
@@ -1042,7 +1042,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$3:$I$3</f>
+              <f>'A 10x 8 bits S1'!$B$3:$H$3</f>
             </numRef>
           </val>
         </ser>
@@ -1069,7 +1069,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$4:$I$4</f>
+              <f>'A 10x 8 bits S1'!$B$4:$H$4</f>
             </numRef>
           </val>
         </ser>
@@ -1096,7 +1096,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$5:$I$5</f>
+              <f>'A 10x 8 bits S1'!$B$5:$H$5</f>
             </numRef>
           </val>
         </ser>
@@ -1123,7 +1123,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$6:$I$6</f>
+              <f>'A 10x 8 bits S1'!$B$6:$H$6</f>
             </numRef>
           </val>
         </ser>
@@ -1150,7 +1150,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$7:$I$7</f>
+              <f>'A 10x 8 bits S1'!$B$7:$H$7</f>
             </numRef>
           </val>
         </ser>
@@ -1177,7 +1177,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$8:$I$8</f>
+              <f>'A 10x 8 bits S1'!$B$8:$H$8</f>
             </numRef>
           </val>
         </ser>
@@ -1204,7 +1204,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$9:$I$9</f>
+              <f>'A 10x 8 bits S1'!$B$9:$H$9</f>
             </numRef>
           </val>
         </ser>
@@ -1231,7 +1231,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$10:$I$10</f>
+              <f>'A 10x 8 bits S1'!$B$10:$H$10</f>
             </numRef>
           </val>
         </ser>
@@ -1258,7 +1258,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$11:$I$11</f>
+              <f>'A 10x 8 bits S1'!$B$11:$H$11</f>
             </numRef>
           </val>
         </ser>
@@ -1285,7 +1285,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$12:$I$12</f>
+              <f>'A 10x 8 bits S1'!$B$12:$H$12</f>
             </numRef>
           </val>
         </ser>
@@ -1312,7 +1312,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$13:$I$13</f>
+              <f>'A 10x 8 bits S1'!$B$13:$H$13</f>
             </numRef>
           </val>
         </ser>
@@ -1339,7 +1339,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$14:$I$14</f>
+              <f>'A 10x 8 bits S1'!$B$14:$H$14</f>
             </numRef>
           </val>
         </ser>
@@ -1366,7 +1366,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S1'!$B$15:$I$15</f>
+              <f>'A 10x 8 bits S1'!$B$15:$H$15</f>
             </numRef>
           </val>
         </ser>
@@ -1434,7 +1434,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$1:$K$1</f>
+              <f>'A 10x 8 bits S2'!$B$1:$J$1</f>
             </numRef>
           </val>
         </ser>
@@ -1461,7 +1461,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$2:$K$2</f>
+              <f>'A 10x 8 bits S2'!$B$2:$J$2</f>
             </numRef>
           </val>
         </ser>
@@ -1488,7 +1488,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$3:$K$3</f>
+              <f>'A 10x 8 bits S2'!$B$3:$J$3</f>
             </numRef>
           </val>
         </ser>
@@ -1515,7 +1515,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$4:$K$4</f>
+              <f>'A 10x 8 bits S2'!$B$4:$J$4</f>
             </numRef>
           </val>
         </ser>
@@ -1542,7 +1542,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$5:$K$5</f>
+              <f>'A 10x 8 bits S2'!$B$5:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -1569,7 +1569,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$6:$K$6</f>
+              <f>'A 10x 8 bits S2'!$B$6:$J$6</f>
             </numRef>
           </val>
         </ser>
@@ -1596,7 +1596,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$7:$K$7</f>
+              <f>'A 10x 8 bits S2'!$B$7:$J$7</f>
             </numRef>
           </val>
         </ser>
@@ -1623,7 +1623,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$8:$K$8</f>
+              <f>'A 10x 8 bits S2'!$B$8:$J$8</f>
             </numRef>
           </val>
         </ser>
@@ -1650,7 +1650,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$9:$K$9</f>
+              <f>'A 10x 8 bits S2'!$B$9:$J$9</f>
             </numRef>
           </val>
         </ser>
@@ -1677,7 +1677,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$10:$K$10</f>
+              <f>'A 10x 8 bits S2'!$B$10:$J$10</f>
             </numRef>
           </val>
         </ser>
@@ -1704,7 +1704,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$11:$K$11</f>
+              <f>'A 10x 8 bits S2'!$B$11:$J$11</f>
             </numRef>
           </val>
         </ser>
@@ -1731,7 +1731,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$12:$K$12</f>
+              <f>'A 10x 8 bits S2'!$B$12:$J$12</f>
             </numRef>
           </val>
         </ser>
@@ -1758,7 +1758,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$13:$K$13</f>
+              <f>'A 10x 8 bits S2'!$B$13:$J$13</f>
             </numRef>
           </val>
         </ser>
@@ -1785,7 +1785,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$14:$K$14</f>
+              <f>'A 10x 8 bits S2'!$B$14:$J$14</f>
             </numRef>
           </val>
         </ser>
@@ -1812,7 +1812,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S2'!$B$15:$K$15</f>
+              <f>'A 10x 8 bits S2'!$B$15:$J$15</f>
             </numRef>
           </val>
         </ser>
@@ -1880,7 +1880,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$1:$L$1</f>
+              <f>'A 10x 8 bits S3'!$B$1:$K$1</f>
             </numRef>
           </val>
         </ser>
@@ -1907,7 +1907,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$2:$L$2</f>
+              <f>'A 10x 8 bits S3'!$B$2:$K$2</f>
             </numRef>
           </val>
         </ser>
@@ -1934,7 +1934,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$3:$L$3</f>
+              <f>'A 10x 8 bits S3'!$B$3:$K$3</f>
             </numRef>
           </val>
         </ser>
@@ -1961,7 +1961,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$4:$L$4</f>
+              <f>'A 10x 8 bits S3'!$B$4:$K$4</f>
             </numRef>
           </val>
         </ser>
@@ -1988,7 +1988,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$5:$L$5</f>
+              <f>'A 10x 8 bits S3'!$B$5:$K$5</f>
             </numRef>
           </val>
         </ser>
@@ -2015,7 +2015,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$6:$L$6</f>
+              <f>'A 10x 8 bits S3'!$B$6:$K$6</f>
             </numRef>
           </val>
         </ser>
@@ -2042,7 +2042,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$7:$L$7</f>
+              <f>'A 10x 8 bits S3'!$B$7:$K$7</f>
             </numRef>
           </val>
         </ser>
@@ -2069,7 +2069,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$8:$L$8</f>
+              <f>'A 10x 8 bits S3'!$B$8:$K$8</f>
             </numRef>
           </val>
         </ser>
@@ -2096,7 +2096,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$9:$L$9</f>
+              <f>'A 10x 8 bits S3'!$B$9:$K$9</f>
             </numRef>
           </val>
         </ser>
@@ -2123,7 +2123,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$10:$L$10</f>
+              <f>'A 10x 8 bits S3'!$B$10:$K$10</f>
             </numRef>
           </val>
         </ser>
@@ -2150,7 +2150,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$11:$L$11</f>
+              <f>'A 10x 8 bits S3'!$B$11:$K$11</f>
             </numRef>
           </val>
         </ser>
@@ -2177,7 +2177,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$12:$L$12</f>
+              <f>'A 10x 8 bits S3'!$B$12:$K$12</f>
             </numRef>
           </val>
         </ser>
@@ -2204,7 +2204,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$13:$L$13</f>
+              <f>'A 10x 8 bits S3'!$B$13:$K$13</f>
             </numRef>
           </val>
         </ser>
@@ -2231,7 +2231,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$14:$L$14</f>
+              <f>'A 10x 8 bits S3'!$B$14:$K$14</f>
             </numRef>
           </val>
         </ser>
@@ -2258,7 +2258,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S3'!$B$15:$L$15</f>
+              <f>'A 10x 8 bits S3'!$B$15:$K$15</f>
             </numRef>
           </val>
         </ser>
@@ -2326,7 +2326,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$1:$K$1</f>
+              <f>'A 10x 8 bits S4'!$B$1:$J$1</f>
             </numRef>
           </val>
         </ser>
@@ -2353,7 +2353,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$2:$K$2</f>
+              <f>'A 10x 8 bits S4'!$B$2:$J$2</f>
             </numRef>
           </val>
         </ser>
@@ -2380,7 +2380,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$3:$K$3</f>
+              <f>'A 10x 8 bits S4'!$B$3:$J$3</f>
             </numRef>
           </val>
         </ser>
@@ -2407,7 +2407,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$4:$K$4</f>
+              <f>'A 10x 8 bits S4'!$B$4:$J$4</f>
             </numRef>
           </val>
         </ser>
@@ -2434,7 +2434,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$5:$K$5</f>
+              <f>'A 10x 8 bits S4'!$B$5:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -2461,7 +2461,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$6:$K$6</f>
+              <f>'A 10x 8 bits S4'!$B$6:$J$6</f>
             </numRef>
           </val>
         </ser>
@@ -2488,7 +2488,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$7:$K$7</f>
+              <f>'A 10x 8 bits S4'!$B$7:$J$7</f>
             </numRef>
           </val>
         </ser>
@@ -2515,7 +2515,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$8:$K$8</f>
+              <f>'A 10x 8 bits S4'!$B$8:$J$8</f>
             </numRef>
           </val>
         </ser>
@@ -2542,7 +2542,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$9:$K$9</f>
+              <f>'A 10x 8 bits S4'!$B$9:$J$9</f>
             </numRef>
           </val>
         </ser>
@@ -2569,7 +2569,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$10:$K$10</f>
+              <f>'A 10x 8 bits S4'!$B$10:$J$10</f>
             </numRef>
           </val>
         </ser>
@@ -2596,7 +2596,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$11:$K$11</f>
+              <f>'A 10x 8 bits S4'!$B$11:$J$11</f>
             </numRef>
           </val>
         </ser>
@@ -2623,7 +2623,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$12:$K$12</f>
+              <f>'A 10x 8 bits S4'!$B$12:$J$12</f>
             </numRef>
           </val>
         </ser>
@@ -2650,7 +2650,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$13:$K$13</f>
+              <f>'A 10x 8 bits S4'!$B$13:$J$13</f>
             </numRef>
           </val>
         </ser>
@@ -2677,7 +2677,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$14:$K$14</f>
+              <f>'A 10x 8 bits S4'!$B$14:$J$14</f>
             </numRef>
           </val>
         </ser>
@@ -2704,7 +2704,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 8 bits S4'!$B$15:$K$15</f>
+              <f>'A 10x 8 bits S4'!$B$15:$J$15</f>
             </numRef>
           </val>
         </ser>
@@ -2772,7 +2772,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$1:$L$1</f>
+              <f>'A 10x 16 bits S0'!$B$1:$K$1</f>
             </numRef>
           </val>
         </ser>
@@ -2799,7 +2799,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$2:$L$2</f>
+              <f>'A 10x 16 bits S0'!$B$2:$K$2</f>
             </numRef>
           </val>
         </ser>
@@ -2826,7 +2826,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$3:$L$3</f>
+              <f>'A 10x 16 bits S0'!$B$3:$K$3</f>
             </numRef>
           </val>
         </ser>
@@ -2853,7 +2853,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$4:$L$4</f>
+              <f>'A 10x 16 bits S0'!$B$4:$K$4</f>
             </numRef>
           </val>
         </ser>
@@ -2880,7 +2880,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$5:$L$5</f>
+              <f>'A 10x 16 bits S0'!$B$5:$K$5</f>
             </numRef>
           </val>
         </ser>
@@ -2907,7 +2907,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$6:$L$6</f>
+              <f>'A 10x 16 bits S0'!$B$6:$K$6</f>
             </numRef>
           </val>
         </ser>
@@ -2934,7 +2934,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$7:$L$7</f>
+              <f>'A 10x 16 bits S0'!$B$7:$K$7</f>
             </numRef>
           </val>
         </ser>
@@ -2961,7 +2961,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$8:$L$8</f>
+              <f>'A 10x 16 bits S0'!$B$8:$K$8</f>
             </numRef>
           </val>
         </ser>
@@ -2988,7 +2988,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$9:$L$9</f>
+              <f>'A 10x 16 bits S0'!$B$9:$K$9</f>
             </numRef>
           </val>
         </ser>
@@ -3015,7 +3015,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$10:$L$10</f>
+              <f>'A 10x 16 bits S0'!$B$10:$K$10</f>
             </numRef>
           </val>
         </ser>
@@ -3042,7 +3042,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$11:$L$11</f>
+              <f>'A 10x 16 bits S0'!$B$11:$K$11</f>
             </numRef>
           </val>
         </ser>
@@ -3069,7 +3069,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$12:$L$12</f>
+              <f>'A 10x 16 bits S0'!$B$12:$K$12</f>
             </numRef>
           </val>
         </ser>
@@ -3096,7 +3096,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$13:$L$13</f>
+              <f>'A 10x 16 bits S0'!$B$13:$K$13</f>
             </numRef>
           </val>
         </ser>
@@ -3123,7 +3123,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$14:$L$14</f>
+              <f>'A 10x 16 bits S0'!$B$14:$K$14</f>
             </numRef>
           </val>
         </ser>
@@ -3150,7 +3150,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S0'!$B$15:$L$15</f>
+              <f>'A 10x 16 bits S0'!$B$15:$K$15</f>
             </numRef>
           </val>
         </ser>
@@ -3218,7 +3218,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$1:$I$1</f>
+              <f>'A 10x 16 bits S1'!$B$1:$H$1</f>
             </numRef>
           </val>
         </ser>
@@ -3245,7 +3245,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$2:$I$2</f>
+              <f>'A 10x 16 bits S1'!$B$2:$H$2</f>
             </numRef>
           </val>
         </ser>
@@ -3272,7 +3272,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$3:$I$3</f>
+              <f>'A 10x 16 bits S1'!$B$3:$H$3</f>
             </numRef>
           </val>
         </ser>
@@ -3299,7 +3299,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$4:$I$4</f>
+              <f>'A 10x 16 bits S1'!$B$4:$H$4</f>
             </numRef>
           </val>
         </ser>
@@ -3326,7 +3326,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$5:$I$5</f>
+              <f>'A 10x 16 bits S1'!$B$5:$H$5</f>
             </numRef>
           </val>
         </ser>
@@ -3353,7 +3353,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$6:$I$6</f>
+              <f>'A 10x 16 bits S1'!$B$6:$H$6</f>
             </numRef>
           </val>
         </ser>
@@ -3380,7 +3380,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$7:$I$7</f>
+              <f>'A 10x 16 bits S1'!$B$7:$H$7</f>
             </numRef>
           </val>
         </ser>
@@ -3407,7 +3407,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$8:$I$8</f>
+              <f>'A 10x 16 bits S1'!$B$8:$H$8</f>
             </numRef>
           </val>
         </ser>
@@ -3434,7 +3434,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$9:$I$9</f>
+              <f>'A 10x 16 bits S1'!$B$9:$H$9</f>
             </numRef>
           </val>
         </ser>
@@ -3461,7 +3461,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$10:$I$10</f>
+              <f>'A 10x 16 bits S1'!$B$10:$H$10</f>
             </numRef>
           </val>
         </ser>
@@ -3488,7 +3488,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$11:$I$11</f>
+              <f>'A 10x 16 bits S1'!$B$11:$H$11</f>
             </numRef>
           </val>
         </ser>
@@ -3515,7 +3515,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$12:$I$12</f>
+              <f>'A 10x 16 bits S1'!$B$12:$H$12</f>
             </numRef>
           </val>
         </ser>
@@ -3542,7 +3542,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$13:$I$13</f>
+              <f>'A 10x 16 bits S1'!$B$13:$H$13</f>
             </numRef>
           </val>
         </ser>
@@ -3569,7 +3569,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$14:$I$14</f>
+              <f>'A 10x 16 bits S1'!$B$14:$H$14</f>
             </numRef>
           </val>
         </ser>
@@ -3596,7 +3596,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S1'!$B$15:$I$15</f>
+              <f>'A 10x 16 bits S1'!$B$15:$H$15</f>
             </numRef>
           </val>
         </ser>
@@ -3664,7 +3664,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$1:$K$1</f>
+              <f>'A 10x 16 bits S2'!$B$1:$J$1</f>
             </numRef>
           </val>
         </ser>
@@ -3691,7 +3691,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$2:$K$2</f>
+              <f>'A 10x 16 bits S2'!$B$2:$J$2</f>
             </numRef>
           </val>
         </ser>
@@ -3718,7 +3718,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$3:$K$3</f>
+              <f>'A 10x 16 bits S2'!$B$3:$J$3</f>
             </numRef>
           </val>
         </ser>
@@ -3745,7 +3745,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$4:$K$4</f>
+              <f>'A 10x 16 bits S2'!$B$4:$J$4</f>
             </numRef>
           </val>
         </ser>
@@ -3772,7 +3772,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$5:$K$5</f>
+              <f>'A 10x 16 bits S2'!$B$5:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -3799,7 +3799,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$6:$K$6</f>
+              <f>'A 10x 16 bits S2'!$B$6:$J$6</f>
             </numRef>
           </val>
         </ser>
@@ -3826,7 +3826,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$7:$K$7</f>
+              <f>'A 10x 16 bits S2'!$B$7:$J$7</f>
             </numRef>
           </val>
         </ser>
@@ -3853,7 +3853,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$8:$K$8</f>
+              <f>'A 10x 16 bits S2'!$B$8:$J$8</f>
             </numRef>
           </val>
         </ser>
@@ -3880,7 +3880,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$9:$K$9</f>
+              <f>'A 10x 16 bits S2'!$B$9:$J$9</f>
             </numRef>
           </val>
         </ser>
@@ -3907,7 +3907,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$10:$K$10</f>
+              <f>'A 10x 16 bits S2'!$B$10:$J$10</f>
             </numRef>
           </val>
         </ser>
@@ -3934,7 +3934,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$11:$K$11</f>
+              <f>'A 10x 16 bits S2'!$B$11:$J$11</f>
             </numRef>
           </val>
         </ser>
@@ -3961,7 +3961,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$12:$K$12</f>
+              <f>'A 10x 16 bits S2'!$B$12:$J$12</f>
             </numRef>
           </val>
         </ser>
@@ -3988,7 +3988,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$13:$K$13</f>
+              <f>'A 10x 16 bits S2'!$B$13:$J$13</f>
             </numRef>
           </val>
         </ser>
@@ -4015,7 +4015,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$14:$K$14</f>
+              <f>'A 10x 16 bits S2'!$B$14:$J$14</f>
             </numRef>
           </val>
         </ser>
@@ -4042,7 +4042,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S2'!$B$15:$K$15</f>
+              <f>'A 10x 16 bits S2'!$B$15:$J$15</f>
             </numRef>
           </val>
         </ser>
@@ -4110,7 +4110,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$1:$L$1</f>
+              <f>'A 10x 16 bits S3'!$B$1:$K$1</f>
             </numRef>
           </val>
         </ser>
@@ -4137,7 +4137,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$2:$L$2</f>
+              <f>'A 10x 16 bits S3'!$B$2:$K$2</f>
             </numRef>
           </val>
         </ser>
@@ -4164,7 +4164,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$3:$L$3</f>
+              <f>'A 10x 16 bits S3'!$B$3:$K$3</f>
             </numRef>
           </val>
         </ser>
@@ -4191,7 +4191,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$4:$L$4</f>
+              <f>'A 10x 16 bits S3'!$B$4:$K$4</f>
             </numRef>
           </val>
         </ser>
@@ -4218,7 +4218,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$5:$L$5</f>
+              <f>'A 10x 16 bits S3'!$B$5:$K$5</f>
             </numRef>
           </val>
         </ser>
@@ -4245,7 +4245,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$6:$L$6</f>
+              <f>'A 10x 16 bits S3'!$B$6:$K$6</f>
             </numRef>
           </val>
         </ser>
@@ -4272,7 +4272,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$7:$L$7</f>
+              <f>'A 10x 16 bits S3'!$B$7:$K$7</f>
             </numRef>
           </val>
         </ser>
@@ -4299,7 +4299,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$8:$L$8</f>
+              <f>'A 10x 16 bits S3'!$B$8:$K$8</f>
             </numRef>
           </val>
         </ser>
@@ -4326,7 +4326,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$9:$L$9</f>
+              <f>'A 10x 16 bits S3'!$B$9:$K$9</f>
             </numRef>
           </val>
         </ser>
@@ -4353,7 +4353,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$10:$L$10</f>
+              <f>'A 10x 16 bits S3'!$B$10:$K$10</f>
             </numRef>
           </val>
         </ser>
@@ -4380,7 +4380,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$11:$L$11</f>
+              <f>'A 10x 16 bits S3'!$B$11:$K$11</f>
             </numRef>
           </val>
         </ser>
@@ -4407,7 +4407,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$12:$L$12</f>
+              <f>'A 10x 16 bits S3'!$B$12:$K$12</f>
             </numRef>
           </val>
         </ser>
@@ -4434,7 +4434,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$13:$L$13</f>
+              <f>'A 10x 16 bits S3'!$B$13:$K$13</f>
             </numRef>
           </val>
         </ser>
@@ -4461,7 +4461,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$14:$L$14</f>
+              <f>'A 10x 16 bits S3'!$B$14:$K$14</f>
             </numRef>
           </val>
         </ser>
@@ -4488,7 +4488,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'A 10x 16 bits S3'!$B$15:$L$15</f>
+              <f>'A 10x 16 bits S3'!$B$15:$K$15</f>
             </numRef>
           </val>
         </ser>
